--- a/Semester3/ASD/lab/TEMP.xlsx
+++ b/Semester3/ASD/lab/TEMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogda\OneDrive\Рабочий стол\Новая папка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DCF942-9C37-4414-9F9B-6C65493B78AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D9C8DA-CD81-46D4-8493-39C3027D7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Кіл-ть ел-в в масиві</t>
   </si>
@@ -35,12 +35,24 @@
   <si>
     <t>Час виконання алгоритму Python, с</t>
   </si>
+  <si>
+    <t>Час виконання алгоритму PyPy, с</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +69,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -74,16 +93,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -364,282 +509,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="6">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="6">
         <v>300000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="6">
         <v>350000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="6">
         <v>400000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="6">
         <v>450000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="6">
         <v>550000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="6">
         <v>600000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="6">
         <v>650000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="6">
         <v>700000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="6">
         <v>750000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="6">
         <v>800000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="6">
         <v>850000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="6">
         <v>900000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="6">
         <v>950000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="10">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6">
+        <v>150000</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
+        <v>200000</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6">
+        <v>250000</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
+        <v>300000</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6">
+        <v>350000</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6">
+        <v>400000</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6">
+        <v>450000</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6">
+        <v>500000</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6">
+        <v>550000</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6">
+        <v>650000</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6">
+        <v>700000</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6">
+        <v>750000</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6">
+        <v>800000</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6">
+        <v>850000</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>18</v>
+      </c>
+      <c r="B43" s="6">
+        <v>900000</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>19</v>
+      </c>
+      <c r="B44" s="6">
+        <v>950000</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>20</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+    <row r="47" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>100000</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6">
+        <v>150000</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6">
+        <v>200000</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>5</v>
+      </c>
+      <c r="B53" s="6">
+        <v>250000</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6">
+        <v>300000</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6">
+        <v>350000</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <v>400000</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6">
+        <v>450000</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6">
+        <v>500000</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6">
+        <v>550000</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>13</v>
+      </c>
+      <c r="B61" s="6">
+        <v>650000</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>14</v>
+      </c>
+      <c r="B62" s="6">
+        <v>700000</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6">
+        <v>750000</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6">
+        <v>800000</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>17</v>
+      </c>
+      <c r="B65" s="6">
+        <v>850000</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6">
+        <v>900000</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6">
+        <v>950000</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>20</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C47:D47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
